--- a/app/src/main/resources/static/errorcode.xlsx
+++ b/app/src/main/resources/static/errorcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuyi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\hims_manager\app\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4413BF-08E9-4E40-ADF0-AAEBC8B2DA22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC7B796-AFF3-4E3D-B6E1-3F53A750506D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1704" yWindow="2826" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>REQ/PLOG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>错误码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,10 +65,6 @@
   </si>
   <si>
     <t>李文颖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYT19967</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -581,29 +573,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="20.62890625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="6"/>
+    <col min="1" max="7" width="20.62890625" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -612,37 +604,31 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
